--- a/TestDataExample.xlsx
+++ b/TestDataExample.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indra365-my.sharepoint.com/personal/jmcaravaca_minsait_com/Documents/Documentos/FormacionLogista/Studio-Code/LogistaSessions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmcaravaca\OneDrive - Indra\Documentos\PoCs\TestSuiteMainframe\UiBank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC10483D919A731C5BDE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F7CC561-5079-451B-9752-76A3AC025385}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,28 +26,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>Manager</t>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>Exists</t>
+  </si>
+  <si>
+    <t>MinBalance</t>
+  </si>
+  <si>
+    <t>Primary Account</t>
+  </si>
+  <si>
+    <t>Secondary Account</t>
+  </si>
+  <si>
+    <t>Test Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,37 +358,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataExample.xlsx
+++ b/TestDataExample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>AccountName</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>Test Account</t>
+  </si>
+  <si>
+    <t>CredentialName</t>
+  </si>
+  <si>
+    <t>CredentialUIBANK</t>
+  </si>
+  <si>
+    <t>CredentialUIBANKNODATA</t>
   </si>
 </sst>
 </file>
@@ -359,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,7 +380,7 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,8 +390,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -392,8 +404,11 @@
       <c r="C2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -403,8 +418,11 @@
       <c r="C3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -414,8 +432,54 @@
       <c r="C4">
         <v>-1</v>
       </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestDataExample.xlsx
+++ b/TestDataExample.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="SSHDATALOGIN" sheetId="2" r:id="rId2"/>
+    <sheet name="SSHDATATRANSACTION" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>AccountName</t>
   </si>
@@ -51,6 +53,51 @@
   </si>
   <si>
     <t>CredentialUIBANKNODATA</t>
+  </si>
+  <si>
+    <t>MaxDate</t>
+  </si>
+  <si>
+    <t>usu1</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>usu2</t>
+  </si>
+  <si>
+    <t>indra</t>
+  </si>
+  <si>
+    <t>jmcaravaca</t>
+  </si>
+  <si>
+    <t>2024-09-12T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-09-11T00:00:00Z</t>
+  </si>
+  <si>
+    <t>FILENAME</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>1234abcd</t>
+  </si>
+  <si>
+    <t>2345bcde</t>
+  </si>
+  <si>
+    <t>3456cdef</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ko</t>
   </si>
 </sst>
 </file>
@@ -370,17 +417,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -408,7 +455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -422,7 +469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -436,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -450,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -464,7 +511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -482,4 +529,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>